--- a/2.0版本/1.xlsx
+++ b/2.0版本/1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\坂田银时\Desktop\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\坂田银时\Desktop\pythonProject\wordscrip\2.0版本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3D96EC7-E38C-4D7A-9D5A-94EC93FA26A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF778E4F-671A-46EA-9C9E-D6DAFD10CFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B6E53A00-A73B-4C59-80F6-589DE70C1B9C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>易读错字词</t>
   </si>
@@ -556,11 +557,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD67B89-03AD-4C9E-89EB-D835FF238947}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7365EB0B-193D-4280-838B-FB5E90747156}">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
